--- a/ConfigDifference/input/Input.xlsx
+++ b/ConfigDifference/input/Input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Badri\accelarator\ConfigDifference\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58533E1F-BA2D-4F71-BBDA-D20D6AC5303E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88989150-886A-4D21-B854-4DD44866C399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3168" yWindow="3168" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{47443D72-44C3-43DF-9A8F-01CAA589CAD1}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>Source</t>
   </si>
@@ -53,15 +53,6 @@
     <t>Whereclause</t>
   </si>
   <si>
-    <t>Success</t>
-  </si>
-  <si>
-    <t>Failed</t>
-  </si>
-  <si>
-    <t>Error</t>
-  </si>
-  <si>
     <t>Add</t>
   </si>
   <si>
@@ -75,9 +66,6 @@
   </si>
   <si>
     <t>COG_CONDITION</t>
-  </si>
-  <si>
-    <t>Payload</t>
   </si>
   <si>
     <t>action</t>
@@ -503,7 +491,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -511,7 +499,7 @@
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -519,12 +507,12 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -541,7 +529,7 @@
   <dimension ref="A3:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -556,7 +544,7 @@
     <col min="8" max="8" width="21.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -566,51 +554,39 @@
       <c r="C3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -637,31 +613,31 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
         <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
